--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Spon2-Itga4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Spon2-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Spon2</t>
   </si>
   <si>
     <t>Itga4</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.584981976284374</v>
+        <v>0.6689560000000001</v>
       </c>
       <c r="H2">
-        <v>0.584981976284374</v>
+        <v>2.006868</v>
       </c>
       <c r="I2">
-        <v>0.1330079193471388</v>
+        <v>0.1299255090071103</v>
       </c>
       <c r="J2">
-        <v>0.1330079193471388</v>
+        <v>0.1299255090071103</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.401300088170972</v>
+        <v>0.403827</v>
       </c>
       <c r="N2">
-        <v>0.401300088170972</v>
+        <v>1.211481</v>
       </c>
       <c r="O2">
-        <v>0.005341692140345045</v>
+        <v>0.005172149156755268</v>
       </c>
       <c r="P2">
-        <v>0.005341692140345045</v>
+        <v>0.005172149156755267</v>
       </c>
       <c r="Q2">
-        <v>0.2347533186613487</v>
+        <v>0.270142494612</v>
       </c>
       <c r="R2">
-        <v>0.2347533186613487</v>
+        <v>2.431282451508</v>
       </c>
       <c r="S2">
-        <v>0.0007104873573802589</v>
+        <v>0.0006719941118521243</v>
       </c>
       <c r="T2">
-        <v>0.0007104873573802589</v>
+        <v>0.0006719941118521242</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.584981976284374</v>
+        <v>0.6689560000000001</v>
       </c>
       <c r="H3">
-        <v>0.584981976284374</v>
+        <v>2.006868</v>
       </c>
       <c r="I3">
-        <v>0.1330079193471388</v>
+        <v>0.1299255090071103</v>
       </c>
       <c r="J3">
-        <v>0.1330079193471388</v>
+        <v>0.1299255090071103</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>23.4340792702359</v>
+        <v>0.137516</v>
       </c>
       <c r="N3">
-        <v>23.4340792702359</v>
+        <v>0.412548</v>
       </c>
       <c r="O3">
-        <v>0.3119302505627921</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="P3">
-        <v>0.3119302505627921</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="Q3">
-        <v>13.70851400390728</v>
+        <v>0.09199215329600001</v>
       </c>
       <c r="R3">
-        <v>13.70851400390728</v>
+        <v>0.8279293796640002</v>
       </c>
       <c r="S3">
-        <v>0.04148919360878865</v>
+        <v>0.0002288354723321044</v>
       </c>
       <c r="T3">
-        <v>0.04148919360878865</v>
+        <v>0.0002288354723321044</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.584981976284374</v>
+        <v>0.6689560000000001</v>
       </c>
       <c r="H4">
-        <v>0.584981976284374</v>
+        <v>2.006868</v>
       </c>
       <c r="I4">
-        <v>0.1330079193471388</v>
+        <v>0.1299255090071103</v>
       </c>
       <c r="J4">
-        <v>0.1330079193471388</v>
+        <v>0.1299255090071103</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.8685390322163</v>
+        <v>23.43656066666667</v>
       </c>
       <c r="N4">
-        <v>50.8685390322163</v>
+        <v>70.309682</v>
       </c>
       <c r="O4">
-        <v>0.6771094329375232</v>
+        <v>0.3001715771588915</v>
       </c>
       <c r="P4">
-        <v>0.6771094329375232</v>
+        <v>0.3001715771588914</v>
       </c>
       <c r="Q4">
-        <v>29.75717849376471</v>
+        <v>15.67802787733067</v>
       </c>
       <c r="R4">
-        <v>29.75717849376471</v>
+        <v>141.102250895976</v>
       </c>
       <c r="S4">
-        <v>0.09006091684534097</v>
+        <v>0.03899994495183606</v>
       </c>
       <c r="T4">
-        <v>0.09006091684534097</v>
+        <v>0.03899994495183605</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.584981976284374</v>
+        <v>0.6689560000000001</v>
       </c>
       <c r="H5">
-        <v>0.584981976284374</v>
+        <v>2.006868</v>
       </c>
       <c r="I5">
-        <v>0.1330079193471388</v>
+        <v>0.1299255090071103</v>
       </c>
       <c r="J5">
-        <v>0.1330079193471388</v>
+        <v>0.1299255090071103</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.422104904506321</v>
+        <v>53.66901333333334</v>
       </c>
       <c r="N5">
-        <v>0.422104904506321</v>
+        <v>161.00704</v>
       </c>
       <c r="O5">
-        <v>0.005618624359339496</v>
+        <v>0.6873838105324489</v>
       </c>
       <c r="P5">
-        <v>0.005618624359339496</v>
+        <v>0.6873838105324488</v>
       </c>
       <c r="Q5">
-        <v>0.2469237612374346</v>
+        <v>35.90220848341334</v>
       </c>
       <c r="R5">
-        <v>0.2469237612374346</v>
+        <v>323.1198763507201</v>
       </c>
       <c r="S5">
-        <v>0.000747321535628897</v>
+        <v>0.08930869146667547</v>
       </c>
       <c r="T5">
-        <v>0.000747321535628897</v>
+        <v>0.08930869146667546</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.81311686742149</v>
+        <v>0.6689560000000001</v>
       </c>
       <c r="H6">
-        <v>3.81311686742149</v>
+        <v>2.006868</v>
       </c>
       <c r="I6">
-        <v>0.8669920806528612</v>
+        <v>0.1299255090071103</v>
       </c>
       <c r="J6">
-        <v>0.8669920806528612</v>
+        <v>0.1299255090071103</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.401300088170972</v>
+        <v>0.4302976666666667</v>
       </c>
       <c r="N6">
-        <v>0.401300088170972</v>
+        <v>1.290893</v>
       </c>
       <c r="O6">
-        <v>0.005341692140345045</v>
+        <v>0.005511181059720522</v>
       </c>
       <c r="P6">
-        <v>0.005341692140345045</v>
+        <v>0.005511181059720521</v>
       </c>
       <c r="Q6">
-        <v>1.530204135102465</v>
+        <v>0.2878502059026667</v>
       </c>
       <c r="R6">
-        <v>1.530204135102465</v>
+        <v>2.590651853124001</v>
       </c>
       <c r="S6">
-        <v>0.004631204782964786</v>
+        <v>0.0007160430044145343</v>
       </c>
       <c r="T6">
-        <v>0.004631204782964786</v>
+        <v>0.0007160430044145341</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.81311686742149</v>
+        <v>3.996041333333333</v>
       </c>
       <c r="H7">
-        <v>3.81311686742149</v>
+        <v>11.988124</v>
       </c>
       <c r="I7">
-        <v>0.8669920806528612</v>
+        <v>0.776116372746167</v>
       </c>
       <c r="J7">
-        <v>0.8669920806528612</v>
+        <v>0.7761163727461668</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.4340792702359</v>
+        <v>0.403827</v>
       </c>
       <c r="N7">
-        <v>23.4340792702359</v>
+        <v>1.211481</v>
       </c>
       <c r="O7">
-        <v>0.3119302505627921</v>
+        <v>0.005172149156755268</v>
       </c>
       <c r="P7">
-        <v>0.3119302505627921</v>
+        <v>0.005172149156755267</v>
       </c>
       <c r="Q7">
-        <v>89.3568829378288</v>
+        <v>1.613709383516</v>
       </c>
       <c r="R7">
-        <v>89.3568829378288</v>
+        <v>14.523384451644</v>
       </c>
       <c r="S7">
-        <v>0.2704410569540034</v>
+        <v>0.004014189642843044</v>
       </c>
       <c r="T7">
-        <v>0.2704410569540034</v>
+        <v>0.004014189642843043</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.81311686742149</v>
+        <v>3.996041333333333</v>
       </c>
       <c r="H8">
-        <v>3.81311686742149</v>
+        <v>11.988124</v>
       </c>
       <c r="I8">
-        <v>0.8669920806528612</v>
+        <v>0.776116372746167</v>
       </c>
       <c r="J8">
-        <v>0.8669920806528612</v>
+        <v>0.7761163727461668</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>50.8685390322163</v>
+        <v>0.137516</v>
       </c>
       <c r="N8">
-        <v>50.8685390322163</v>
+        <v>0.412548</v>
       </c>
       <c r="O8">
-        <v>0.6771094329375232</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="P8">
-        <v>0.6771094329375232</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="Q8">
-        <v>193.9676842048324</v>
+        <v>0.5495196199946666</v>
       </c>
       <c r="R8">
-        <v>193.9676842048324</v>
+        <v>4.945676579952</v>
       </c>
       <c r="S8">
-        <v>0.5870485160921822</v>
+        <v>0.001366959868768567</v>
       </c>
       <c r="T8">
-        <v>0.5870485160921822</v>
+        <v>0.001366959868768567</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,1115 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.996041333333333</v>
+      </c>
+      <c r="H9">
+        <v>11.988124</v>
+      </c>
+      <c r="I9">
+        <v>0.776116372746167</v>
+      </c>
+      <c r="J9">
+        <v>0.7761163727461668</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>23.43656066666667</v>
+      </c>
+      <c r="N9">
+        <v>70.309682</v>
+      </c>
+      <c r="O9">
+        <v>0.3001715771588915</v>
+      </c>
+      <c r="P9">
+        <v>0.3001715771588914</v>
+      </c>
+      <c r="Q9">
+        <v>93.6534651351742</v>
+      </c>
+      <c r="R9">
+        <v>842.8811862165679</v>
+      </c>
+      <c r="S9">
+        <v>0.232968075666055</v>
+      </c>
+      <c r="T9">
+        <v>0.232968075666055</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3.81311686742149</v>
-      </c>
-      <c r="H9">
-        <v>3.81311686742149</v>
-      </c>
-      <c r="I9">
-        <v>0.8669920806528612</v>
-      </c>
-      <c r="J9">
-        <v>0.8669920806528612</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.422104904506321</v>
-      </c>
-      <c r="N9">
-        <v>0.422104904506321</v>
-      </c>
-      <c r="O9">
-        <v>0.005618624359339496</v>
-      </c>
-      <c r="P9">
-        <v>0.005618624359339496</v>
-      </c>
-      <c r="Q9">
-        <v>1.60953533119439</v>
-      </c>
-      <c r="R9">
-        <v>1.60953533119439</v>
-      </c>
-      <c r="S9">
-        <v>0.004871302823710598</v>
-      </c>
-      <c r="T9">
-        <v>0.004871302823710598</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.996041333333333</v>
+      </c>
+      <c r="H10">
+        <v>11.988124</v>
+      </c>
+      <c r="I10">
+        <v>0.776116372746167</v>
+      </c>
+      <c r="J10">
+        <v>0.7761163727461668</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>53.66901333333334</v>
+      </c>
+      <c r="N10">
+        <v>161.00704</v>
+      </c>
+      <c r="O10">
+        <v>0.6873838105324489</v>
+      </c>
+      <c r="P10">
+        <v>0.6873838105324488</v>
+      </c>
+      <c r="Q10">
+        <v>214.4635955992178</v>
+      </c>
+      <c r="R10">
+        <v>1930.17236039296</v>
+      </c>
+      <c r="S10">
+        <v>0.5334898297148827</v>
+      </c>
+      <c r="T10">
+        <v>0.5334898297148826</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.996041333333333</v>
+      </c>
+      <c r="H11">
+        <v>11.988124</v>
+      </c>
+      <c r="I11">
+        <v>0.776116372746167</v>
+      </c>
+      <c r="J11">
+        <v>0.7761163727461668</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.4302976666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.290893</v>
+      </c>
+      <c r="O11">
+        <v>0.005511181059720522</v>
+      </c>
+      <c r="P11">
+        <v>0.005511181059720521</v>
+      </c>
+      <c r="Q11">
+        <v>1.719487261636889</v>
+      </c>
+      <c r="R11">
+        <v>15.475385354732</v>
+      </c>
+      <c r="S11">
+        <v>0.004277317853617668</v>
+      </c>
+      <c r="T11">
+        <v>0.004277317853617667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1507453333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.452236</v>
+      </c>
+      <c r="I12">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="J12">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.403827</v>
+      </c>
+      <c r="N12">
+        <v>1.211481</v>
+      </c>
+      <c r="O12">
+        <v>0.005172149156755268</v>
+      </c>
+      <c r="P12">
+        <v>0.005172149156755267</v>
+      </c>
+      <c r="Q12">
+        <v>0.06087503572399999</v>
+      </c>
+      <c r="R12">
+        <v>0.5478753215159999</v>
+      </c>
+      <c r="S12">
+        <v>0.000151429954121326</v>
+      </c>
+      <c r="T12">
+        <v>0.000151429954121326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1507453333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.452236</v>
+      </c>
+      <c r="I13">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="J13">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.137516</v>
+      </c>
+      <c r="N13">
+        <v>0.412548</v>
+      </c>
+      <c r="O13">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="P13">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="Q13">
+        <v>0.02072989525866666</v>
+      </c>
+      <c r="R13">
+        <v>0.186569057328</v>
+      </c>
+      <c r="S13">
+        <v>5.15667391505478E-05</v>
+      </c>
+      <c r="T13">
+        <v>5.15667391505478E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1507453333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.452236</v>
+      </c>
+      <c r="I14">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="J14">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>23.43656066666667</v>
+      </c>
+      <c r="N14">
+        <v>70.309682</v>
+      </c>
+      <c r="O14">
+        <v>0.3001715771588915</v>
+      </c>
+      <c r="P14">
+        <v>0.3001715771588914</v>
+      </c>
+      <c r="Q14">
+        <v>3.532952149883555</v>
+      </c>
+      <c r="R14">
+        <v>31.79656934895199</v>
+      </c>
+      <c r="S14">
+        <v>0.008788410152156758</v>
+      </c>
+      <c r="T14">
+        <v>0.008788410152156754</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1507453333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.452236</v>
+      </c>
+      <c r="I15">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="J15">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>53.66901333333334</v>
+      </c>
+      <c r="N15">
+        <v>161.00704</v>
+      </c>
+      <c r="O15">
+        <v>0.6873838105324489</v>
+      </c>
+      <c r="P15">
+        <v>0.6873838105324488</v>
+      </c>
+      <c r="Q15">
+        <v>8.090353304604445</v>
+      </c>
+      <c r="R15">
+        <v>72.81317974144001</v>
+      </c>
+      <c r="S15">
+        <v>0.0201251927850379</v>
+      </c>
+      <c r="T15">
+        <v>0.0201251927850379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1507453333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.452236</v>
+      </c>
+      <c r="I16">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="J16">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4302976666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.290893</v>
+      </c>
+      <c r="O16">
+        <v>0.005511181059720522</v>
+      </c>
+      <c r="P16">
+        <v>0.005511181059720521</v>
+      </c>
+      <c r="Q16">
+        <v>0.06486536519422222</v>
+      </c>
+      <c r="R16">
+        <v>0.583788286748</v>
+      </c>
+      <c r="S16">
+        <v>0.0001613561151727026</v>
+      </c>
+      <c r="T16">
+        <v>0.0001613561151727025</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.06722566666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.201677</v>
+      </c>
+      <c r="I17">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="J17">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.403827</v>
+      </c>
+      <c r="N17">
+        <v>1.211481</v>
+      </c>
+      <c r="O17">
+        <v>0.005172149156755268</v>
+      </c>
+      <c r="P17">
+        <v>0.005172149156755267</v>
+      </c>
+      <c r="Q17">
+        <v>0.027147539293</v>
+      </c>
+      <c r="R17">
+        <v>0.244327853637</v>
+      </c>
+      <c r="S17">
+        <v>6.753097687341712E-05</v>
+      </c>
+      <c r="T17">
+        <v>6.75309768734171E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.06722566666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.201677</v>
+      </c>
+      <c r="I18">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="J18">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.137516</v>
+      </c>
+      <c r="N18">
+        <v>0.412548</v>
+      </c>
+      <c r="O18">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="P18">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="Q18">
+        <v>0.009244604777333333</v>
+      </c>
+      <c r="R18">
+        <v>0.08320144299600001</v>
+      </c>
+      <c r="S18">
+        <v>2.299645594703878E-05</v>
+      </c>
+      <c r="T18">
+        <v>2.299645594703878E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06722566666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.201677</v>
+      </c>
+      <c r="I19">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="J19">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>23.43656066666667</v>
+      </c>
+      <c r="N19">
+        <v>70.309682</v>
+      </c>
+      <c r="O19">
+        <v>0.3001715771588915</v>
+      </c>
+      <c r="P19">
+        <v>0.3001715771588914</v>
+      </c>
+      <c r="Q19">
+        <v>1.575538415190444</v>
+      </c>
+      <c r="R19">
+        <v>14.179845736714</v>
+      </c>
+      <c r="S19">
+        <v>0.003919237288178116</v>
+      </c>
+      <c r="T19">
+        <v>0.003919237288178115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.06722566666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.201677</v>
+      </c>
+      <c r="I20">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="J20">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>53.66901333333334</v>
+      </c>
+      <c r="N20">
+        <v>161.00704</v>
+      </c>
+      <c r="O20">
+        <v>0.6873838105324489</v>
+      </c>
+      <c r="P20">
+        <v>0.6873838105324488</v>
+      </c>
+      <c r="Q20">
+        <v>3.607935200675556</v>
+      </c>
+      <c r="R20">
+        <v>32.47141680608</v>
+      </c>
+      <c r="S20">
+        <v>0.008974934559186109</v>
+      </c>
+      <c r="T20">
+        <v>0.008974934559186106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06722566666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.201677</v>
+      </c>
+      <c r="I21">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="J21">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.4302976666666667</v>
+      </c>
+      <c r="N21">
+        <v>1.290893</v>
+      </c>
+      <c r="O21">
+        <v>0.005511181059720522</v>
+      </c>
+      <c r="P21">
+        <v>0.005511181059720521</v>
+      </c>
+      <c r="Q21">
+        <v>0.02892704750677778</v>
+      </c>
+      <c r="R21">
+        <v>0.260343427561</v>
+      </c>
+      <c r="S21">
+        <v>7.195760010190507E-05</v>
+      </c>
+      <c r="T21">
+        <v>7.195760010190505E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.2657973333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.797392</v>
+      </c>
+      <c r="I22">
+        <v>0.05162350562079702</v>
+      </c>
+      <c r="J22">
+        <v>0.05162350562079701</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.403827</v>
+      </c>
+      <c r="N22">
+        <v>1.211481</v>
+      </c>
+      <c r="O22">
+        <v>0.005172149156755268</v>
+      </c>
+      <c r="P22">
+        <v>0.005172149156755267</v>
+      </c>
+      <c r="Q22">
+        <v>0.107336139728</v>
+      </c>
+      <c r="R22">
+        <v>0.966025257552</v>
+      </c>
+      <c r="S22">
+        <v>0.0002670044710653561</v>
+      </c>
+      <c r="T22">
+        <v>0.000267004471065356</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.2657973333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.797392</v>
+      </c>
+      <c r="I23">
+        <v>0.05162350562079702</v>
+      </c>
+      <c r="J23">
+        <v>0.05162350562079701</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.137516</v>
+      </c>
+      <c r="N23">
+        <v>0.412548</v>
+      </c>
+      <c r="O23">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="P23">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="Q23">
+        <v>0.03655138609066667</v>
+      </c>
+      <c r="R23">
+        <v>0.328962474816</v>
+      </c>
+      <c r="S23">
+        <v>9.092355598566592E-05</v>
+      </c>
+      <c r="T23">
+        <v>9.092355598566591E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.2657973333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.797392</v>
+      </c>
+      <c r="I24">
+        <v>0.05162350562079702</v>
+      </c>
+      <c r="J24">
+        <v>0.05162350562079701</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>23.43656066666667</v>
+      </c>
+      <c r="N24">
+        <v>70.309682</v>
+      </c>
+      <c r="O24">
+        <v>0.3001715771588915</v>
+      </c>
+      <c r="P24">
+        <v>0.3001715771588914</v>
+      </c>
+      <c r="Q24">
+        <v>6.229375327704888</v>
+      </c>
+      <c r="R24">
+        <v>56.06437794934399</v>
+      </c>
+      <c r="S24">
+        <v>0.01549590910066554</v>
+      </c>
+      <c r="T24">
+        <v>0.01549590910066554</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.2657973333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.797392</v>
+      </c>
+      <c r="I25">
+        <v>0.05162350562079702</v>
+      </c>
+      <c r="J25">
+        <v>0.05162350562079701</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>53.66901333333334</v>
+      </c>
+      <c r="N25">
+        <v>161.00704</v>
+      </c>
+      <c r="O25">
+        <v>0.6873838105324489</v>
+      </c>
+      <c r="P25">
+        <v>0.6873838105324488</v>
+      </c>
+      <c r="Q25">
+        <v>14.26508062663111</v>
+      </c>
+      <c r="R25">
+        <v>128.38572563968</v>
+      </c>
+      <c r="S25">
+        <v>0.03548516200666675</v>
+      </c>
+      <c r="T25">
+        <v>0.03548516200666674</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.2657973333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.797392</v>
+      </c>
+      <c r="I26">
+        <v>0.05162350562079702</v>
+      </c>
+      <c r="J26">
+        <v>0.05162350562079701</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.4302976666666667</v>
+      </c>
+      <c r="N26">
+        <v>1.290893</v>
+      </c>
+      <c r="O26">
+        <v>0.005511181059720522</v>
+      </c>
+      <c r="P26">
+        <v>0.005511181059720521</v>
+      </c>
+      <c r="Q26">
+        <v>0.1143719723395556</v>
+      </c>
+      <c r="R26">
+        <v>1.029347751056</v>
+      </c>
+      <c r="S26">
+        <v>0.0002845064864137124</v>
+      </c>
+      <c r="T26">
+        <v>0.0002845064864137124</v>
       </c>
     </row>
   </sheetData>
